--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-foundation-src\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E458D1-0338-402E-961C-C74D0B25B038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEED198E-C3D2-4F63-B84A-928568A4BD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="506" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19100" yWindow="0" windowWidth="19390" windowHeight="20970" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -101,6 +101,19 @@
   </si>
   <si>
     <t>KMGFUND_LOG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YAMLのロードにするファイルの読み込みに失敗しました。ファイルパス=[{0}]</t>
+    <rPh sb="16" eb="17">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シッパイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4423,11 +4436,15 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="11"/>
+      <c r="B3" s="12">
+        <v>24000</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="D3" s="13" t="str">
         <f t="shared" ref="D3" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
-        <v/>
+        <v>KMGFUND_GEN24000=YAMLのロードにするファイルの読み込みに失敗しました。ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-foundation-src\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEED198E-C3D2-4F63-B84A-928568A4BD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A996626-20EB-4227-BE92-0F4E8BE68B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19100" yWindow="0" windowWidth="19390" windowHeight="20970" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8470" yWindow="7860" windowWidth="27810" windowHeight="11210" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -104,14 +104,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>YAMLのロードにするファイルの読み込みに失敗しました。ファイルパス=[{0}]</t>
-    <rPh sb="16" eb="17">
+    <t>YAMLにロードするファイルの読み込みに失敗しました。ファイルパス=[{0}]</t>
+    <rPh sb="15" eb="16">
       <t>ヨ</t>
     </rPh>
-    <rPh sb="18" eb="19">
+    <rPh sb="17" eb="18">
       <t>コ</t>
     </rPh>
-    <rPh sb="21" eb="23">
+    <rPh sb="20" eb="22">
       <t>シッパイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -4444,7 +4444,7 @@
       </c>
       <c r="D3" s="13" t="str">
         <f t="shared" ref="D3" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
-        <v>KMGFUND_GEN24000=YAMLのロードにするファイルの読み込みに失敗しました。ファイルパス=[{0}]</v>
+        <v>KMGFUND_GEN24000=YAMLにロードするファイルの読み込みに失敗しました。ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-foundation-src\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A996626-20EB-4227-BE92-0F4E8BE68B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CEACB4-94BE-4DB8-82DE-49B9EBA4B1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8470" yWindow="7860" windowWidth="27810" windowHeight="11210" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -113,6 +113,13 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当するYAMLファイルがありません。ファイルパス=[{0}]</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4440,11 +4447,11 @@
         <v>24000</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="13" t="str">
         <f t="shared" ref="D3" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
-        <v>KMGFUND_GEN24000=YAMLにロードするファイルの読み込みに失敗しました。ファイルパス=[{0}]</v>
+        <v>KMGFUND_GEN24000=該当するYAMLファイルがありません。ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4452,11 +4459,15 @@
         <f t="shared" ref="A4:A36" si="1">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="12">
+        <v>24001</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="D4" s="13" t="str">
         <f t="shared" ref="D4:D36" si="2">IF(C4="","",$D$1&amp;TEXT(B4,"00000")&amp;"="&amp;C4)</f>
-        <v/>
+        <v>KMGFUND_GEN24001=YAMLにロードするファイルの読み込みに失敗しました。ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="5" spans="1:4">
